--- a/Data/worlds/deep-dark-heresy/word_files/РЕКВИЗИЦИЯ.xlsx
+++ b/Data/worlds/deep-dark-heresy/word_files/РЕКВИЗИЦИЯ.xlsx
@@ -417,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -425,36 +425,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -470,7 +440,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -754,7 +753,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,48 +763,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="4">
         <v>26</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="13">
-        <v>52</v>
+      <c r="H1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="28">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="4">
         <v>40</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="14"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6" t="s">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="4">
         <v>30</v>
       </c>
@@ -814,452 +813,452 @@
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="22" t="s">
+      <c r="I9" s="12" t="s">
         <v>15</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="17" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="K10" s="3"/>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="M10" s="3"/>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="24">
+      <c r="B11" s="14">
         <v>85</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="13">
         <v>24</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="15">
         <v>53</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="23">
+      <c r="F11" s="13">
         <v>-10</v>
       </c>
-      <c r="G11" s="23">
+      <c r="G11" s="13">
         <v>0</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="23">
-        <f>IF(B11&lt;=$E$2+$E$5, 1 + _xlfn.FLOOR.MATH(($E$2+$E$5)/10) - _xlfn.FLOOR.MATH(B11/10), -1 + _xlfn.FLOOR.MATH(($E$2+$E$5)/10) - _xlfn.FLOOR.MATH(B11/10))</f>
+      <c r="I11" s="13">
+        <f t="shared" ref="I11:I20" si="0">IF(B11&lt;=$E$2+$E$5, 1 + _xlfn.FLOOR.MATH(($E$2+$E$5)/10) - _xlfn.FLOOR.MATH(B11/10), -1 + _xlfn.FLOOR.MATH(($E$2+$E$5)/10) - _xlfn.FLOOR.MATH(B11/10))</f>
         <v>-4</v>
       </c>
-      <c r="J11" s="23">
+      <c r="J11" s="13">
         <f>IF(C11&lt;=$E$3+$E$6, 1 + _xlfn.FLOOR.MATH(($E$3+$E$6)/10) - _xlfn.FLOOR.MATH(C11/10), -1 + _xlfn.FLOOR.MATH(($E$3+$E$6)/10) - _xlfn.FLOOR.MATH(C11/10))</f>
         <v>4</v>
       </c>
       <c r="K11" s="3"/>
-      <c r="L11" s="23">
+      <c r="L11" s="13">
         <f>MIN(IF(I11&gt;J11,I11-J11,IF(I11&lt;=(J11-3),-1,0))*10,60)</f>
         <v>-10</v>
       </c>
       <c r="M11" s="3"/>
-      <c r="N11" s="28">
+      <c r="N11" s="18">
         <f>IF(D11&lt;=$E$1+F11+G11+L11, 1 + _xlfn.FLOOR.MATH(($E$1+F11+G11+L11)/10) - _xlfn.FLOOR.MATH(D11/10), -1 + _xlfn.FLOOR.MATH(($E$1+F11+G11+L11)/10) - _xlfn.FLOOR.MATH(D11/10))</f>
         <v>-6</v>
       </c>
       <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="16">
+      <c r="B12" s="6">
         <v>53</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="10">
         <v>37</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="8">
         <v>14</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="20">
+      <c r="F12" s="10">
         <v>10</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="10">
         <v>0</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="20">
-        <f>IF(B12&lt;=$E$2+$E$5, 1 + _xlfn.FLOOR.MATH(($E$2+$E$5)/10) - _xlfn.FLOOR.MATH(B12/10), -1 + _xlfn.FLOOR.MATH(($E$2+$E$5)/10) - _xlfn.FLOOR.MATH(B12/10))</f>
+      <c r="I12" s="10">
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="J12" s="20">
-        <f t="shared" ref="J12:J20" si="0">IF(C12&lt;=$E$3+$E$6, 1 + _xlfn.FLOOR.MATH(($E$3+$E$6)/10) - _xlfn.FLOOR.MATH(C12/10), -1 + _xlfn.FLOOR.MATH(($E$3+$E$6)/10) - _xlfn.FLOOR.MATH(C12/10))</f>
+      <c r="J12" s="10">
+        <f t="shared" ref="J12:J20" si="1">IF(C12&lt;=$E$3+$E$6, 1 + _xlfn.FLOOR.MATH(($E$3+$E$6)/10) - _xlfn.FLOOR.MATH(C12/10), -1 + _xlfn.FLOOR.MATH(($E$3+$E$6)/10) - _xlfn.FLOOR.MATH(C12/10))</f>
         <v>3</v>
       </c>
       <c r="K12" s="3"/>
-      <c r="L12" s="20">
-        <f t="shared" ref="L12:L20" si="1">MIN(IF(I12&gt;J12,I12-J12,IF(I12&lt;=(J12-3),-1,0))*10,60)</f>
+      <c r="L12" s="10">
+        <f t="shared" ref="L12:L20" si="2">MIN(IF(I12&gt;J12,I12-J12,IF(I12&lt;=(J12-3),-1,0))*10,60)</f>
         <v>-10</v>
       </c>
       <c r="M12" s="3"/>
-      <c r="N12" s="29">
+      <c r="N12" s="19">
         <f>IF(D12&lt;=$E$1+F12+G12+L12, 1 + _xlfn.FLOOR.MATH(($E$1+F12+G12+L12)/10) - _xlfn.FLOOR.MATH(D12/10), -1 + _xlfn.FLOOR.MATH(($E$1+F12+G12+L12)/10) - _xlfn.FLOOR.MATH(D12/10))</f>
         <v>2</v>
       </c>
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="16">
+      <c r="B13" s="6">
         <v>41</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="10">
         <v>99</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="8">
         <v>74</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="20">
+      <c r="F13" s="10">
         <v>-10</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G13" s="10">
         <v>0</v>
       </c>
       <c r="H13" s="3"/>
-      <c r="I13" s="20">
-        <f>IF(B13&lt;=$E$2+$E$5, 1 + _xlfn.FLOOR.MATH(($E$2+$E$5)/10) - _xlfn.FLOOR.MATH(B13/10), -1 + _xlfn.FLOOR.MATH(($E$2+$E$5)/10) - _xlfn.FLOOR.MATH(B13/10))</f>
+      <c r="I13" s="10">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J13" s="20">
-        <f t="shared" si="0"/>
+      <c r="J13" s="10">
+        <f t="shared" si="1"/>
         <v>-5</v>
       </c>
       <c r="K13" s="3"/>
-      <c r="L13" s="20">
-        <f t="shared" si="1"/>
+      <c r="L13" s="10">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="29">
+      <c r="N13" s="19">
         <f>IF(D13&lt;=$E$1+F13+G13+L13, 1 + _xlfn.FLOOR.MATH(($E$1+F13+G13+L13)/10) - _xlfn.FLOOR.MATH(D13/10), -1 + _xlfn.FLOOR.MATH(($E$1+F13+G13+L13)/10) - _xlfn.FLOOR.MATH(D13/10))</f>
         <v>1</v>
       </c>
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="16">
+      <c r="B14" s="6">
         <v>10</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="10">
         <v>69</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="8">
         <v>15</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="20">
-        <v>0</v>
-      </c>
-      <c r="G14" s="20">
+      <c r="F14" s="10">
+        <v>-10</v>
+      </c>
+      <c r="G14" s="10">
         <v>0</v>
       </c>
       <c r="H14" s="3"/>
-      <c r="I14" s="20">
-        <f>IF(B14&lt;=$E$2+$E$5, 1 + _xlfn.FLOOR.MATH(($E$2+$E$5)/10) - _xlfn.FLOOR.MATH(B14/10), -1 + _xlfn.FLOOR.MATH(($E$2+$E$5)/10) - _xlfn.FLOOR.MATH(B14/10))</f>
+      <c r="I14" s="10">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J14" s="20">
+      <c r="J14" s="10">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="10">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="19">
+        <f>IF(D14&lt;=$E$1+F14+G14+L14, 1 + _xlfn.FLOOR.MATH(($E$1+F14+G14+L14)/10) - _xlfn.FLOOR.MATH(D14/10), -1 + _xlfn.FLOOR.MATH(($E$1+F14+G14+L14)/10) - _xlfn.FLOOR.MATH(D14/10))</f>
+        <v>7</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="6">
+        <v>69</v>
+      </c>
+      <c r="C15" s="10">
+        <v>16</v>
+      </c>
+      <c r="D15" s="8">
+        <v>74</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="10">
+        <v>-10</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="10">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="20">
+      <c r="J15" s="10">
         <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="30">
-        <f>IF(D14&lt;=$E$1+F14+G14+L14, 1 + _xlfn.FLOOR.MATH(($E$1+F14+G14+L14)/10) - _xlfn.FLOOR.MATH(D14/10), -1 + _xlfn.FLOOR.MATH(($E$1+F14+G14+L14)/10) - _xlfn.FLOOR.MATH(D14/10))</f>
-        <v>8</v>
-      </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="16">
-        <v>69</v>
-      </c>
-      <c r="C15" s="20">
-        <v>16</v>
-      </c>
-      <c r="D15" s="18">
-        <v>74</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="20">
-        <v>0</v>
-      </c>
-      <c r="G15" s="20">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="20">
-        <f>IF(B15&lt;=$E$2+$E$5, 1 + _xlfn.FLOOR.MATH(($E$2+$E$5)/10) - _xlfn.FLOOR.MATH(B15/10), -1 + _xlfn.FLOOR.MATH(($E$2+$E$5)/10) - _xlfn.FLOOR.MATH(B15/10))</f>
-        <v>-2</v>
-      </c>
-      <c r="J15" s="20">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K15" s="3"/>
-      <c r="L15" s="20">
-        <f t="shared" si="1"/>
+      <c r="L15" s="10">
+        <f t="shared" si="2"/>
         <v>-10</v>
       </c>
       <c r="M15" s="3"/>
-      <c r="N15" s="20">
-        <f t="shared" ref="N15:N20" si="2">IF(D15&lt;=$E$1+F15+G15+L15, 1 + _xlfn.FLOOR.MATH(($E$1+F15+G15+L15)/10) - _xlfn.FLOOR.MATH(D15/10), -1 + _xlfn.FLOOR.MATH(($E$1+F15+G15+L15)/10) - _xlfn.FLOOR.MATH(D15/10))</f>
-        <v>-7</v>
+      <c r="N15" s="19">
+        <f t="shared" ref="N15:N20" si="3">IF(D15&lt;=$E$1+F15+G15+L15, 1 + _xlfn.FLOOR.MATH(($E$1+F15+G15+L15)/10) - _xlfn.FLOOR.MATH(D15/10), -1 + _xlfn.FLOOR.MATH(($E$1+F15+G15+L15)/10) - _xlfn.FLOOR.MATH(D15/10))</f>
+        <v>-8</v>
       </c>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="16">
+      <c r="B16" s="6">
         <v>40</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="10">
         <v>41</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="8">
         <v>92</v>
       </c>
       <c r="E16" s="3"/>
-      <c r="F16" s="20">
-        <v>0</v>
-      </c>
-      <c r="G16" s="20">
+      <c r="F16" s="10">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10">
         <v>0</v>
       </c>
       <c r="H16" s="3"/>
-      <c r="I16" s="20">
-        <f>IF(B16&lt;=$E$2+$E$5, 1 + _xlfn.FLOOR.MATH(($E$2+$E$5)/10) - _xlfn.FLOOR.MATH(B16/10), -1 + _xlfn.FLOOR.MATH(($E$2+$E$5)/10) - _xlfn.FLOOR.MATH(B16/10))</f>
-        <v>2</v>
-      </c>
-      <c r="J16" s="20">
+      <c r="I16" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="J16" s="10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="K16" s="3"/>
-      <c r="L16" s="20">
+      <c r="L16" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="10">
+        <f t="shared" si="3"/>
+        <v>-8</v>
+      </c>
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="6">
+        <v>22</v>
+      </c>
+      <c r="C17" s="10">
+        <v>19</v>
+      </c>
+      <c r="D17" s="8">
+        <v>63</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="10">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J17" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="20">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="10">
         <f t="shared" si="2"/>
-        <v>-8</v>
-      </c>
-      <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="16">
-        <v>22</v>
-      </c>
-      <c r="C17" s="20">
-        <v>19</v>
-      </c>
-      <c r="D17" s="18">
-        <v>63</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="20">
-        <v>0</v>
-      </c>
-      <c r="G17" s="20">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="20">
-        <f>IF(B17&lt;=$E$2+$E$5, 1 + _xlfn.FLOOR.MATH(($E$2+$E$5)/10) - _xlfn.FLOOR.MATH(B17/10), -1 + _xlfn.FLOOR.MATH(($E$2+$E$5)/10) - _xlfn.FLOOR.MATH(B17/10))</f>
-        <v>4</v>
-      </c>
-      <c r="J17" s="20">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="10">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="6">
+        <v>35</v>
+      </c>
+      <c r="C18" s="10">
+        <v>64</v>
+      </c>
+      <c r="D18" s="8">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="10">
         <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="20">
+        <v>3</v>
+      </c>
+      <c r="J18" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="20">
+        <v>-2</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="10">
         <f t="shared" si="2"/>
-        <v>-5</v>
-      </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="16">
-        <v>35</v>
-      </c>
-      <c r="C18" s="20">
-        <v>64</v>
-      </c>
-      <c r="D18" s="18">
-        <v>12</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="20">
-        <v>0</v>
-      </c>
-      <c r="G18" s="20">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="20">
-        <f>IF(B18&lt;=$E$2+$E$5, 1 + _xlfn.FLOOR.MATH(($E$2+$E$5)/10) - _xlfn.FLOOR.MATH(B18/10), -1 + _xlfn.FLOOR.MATH(($E$2+$E$5)/10) - _xlfn.FLOOR.MATH(B18/10))</f>
-        <v>3</v>
-      </c>
-      <c r="J18" s="20">
+        <v>50</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="10">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="6">
+        <v>69</v>
+      </c>
+      <c r="C19" s="10">
+        <v>90</v>
+      </c>
+      <c r="D19" s="8">
+        <v>85</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="10">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="10">
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="20">
+      <c r="J19" s="10">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="M18" s="3"/>
-      <c r="N18" s="20">
+        <v>-5</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="10">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="16">
-        <v>69</v>
-      </c>
-      <c r="C19" s="20">
-        <v>90</v>
-      </c>
-      <c r="D19" s="18">
-        <v>85</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="20">
-        <v>0</v>
-      </c>
-      <c r="G19" s="20">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="20">
-        <f>IF(B19&lt;=$E$2+$E$5, 1 + _xlfn.FLOOR.MATH(($E$2+$E$5)/10) - _xlfn.FLOOR.MATH(B19/10), -1 + _xlfn.FLOOR.MATH(($E$2+$E$5)/10) - _xlfn.FLOOR.MATH(B19/10))</f>
-        <v>-2</v>
-      </c>
-      <c r="J19" s="20">
-        <f t="shared" si="0"/>
-        <v>-5</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="20">
-        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="M19" s="3"/>
-      <c r="N19" s="20">
-        <f t="shared" si="2"/>
+      <c r="N19" s="10">
+        <f t="shared" si="3"/>
         <v>-4</v>
       </c>
       <c r="O19" s="3"/>
     </row>
     <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="17">
+      <c r="B20" s="7">
         <v>47</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="11">
         <v>44</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="9">
         <v>56</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="21">
-        <v>0</v>
-      </c>
-      <c r="G20" s="21">
+      <c r="F20" s="11">
+        <v>0</v>
+      </c>
+      <c r="G20" s="11">
         <v>0</v>
       </c>
       <c r="H20" s="3"/>
-      <c r="I20" s="21">
-        <f>IF(B20&lt;=$E$2+$E$5, 1 + _xlfn.FLOOR.MATH(($E$2+$E$5)/10) - _xlfn.FLOOR.MATH(B20/10), -1 + _xlfn.FLOOR.MATH(($E$2+$E$5)/10) - _xlfn.FLOOR.MATH(B20/10))</f>
-        <v>2</v>
-      </c>
-      <c r="J20" s="21">
+      <c r="I20" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="J20" s="11">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="K20" s="3"/>
-      <c r="L20" s="21">
-        <f t="shared" si="1"/>
+      <c r="L20" s="11">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M20" s="3"/>
-      <c r="N20" s="21">
-        <f t="shared" si="2"/>
+      <c r="N20" s="11">
+        <f t="shared" si="3"/>
         <v>-4</v>
       </c>
       <c r="O20" s="3"/>

--- a/Data/worlds/deep-dark-heresy/word_files/РЕКВИЗИЦИЯ.xlsx
+++ b/Data/worlds/deep-dark-heresy/word_files/РЕКВИЗИЦИЯ.xlsx
@@ -356,35 +356,37 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -395,7 +397,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -408,7 +410,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -417,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -435,10 +437,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -470,6 +468,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -750,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -763,48 +766,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="21" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="21"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="4">
         <v>26</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="28">
+      <c r="H1" s="19"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="24">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="21"/>
+      <c r="D2" s="17"/>
       <c r="E2" s="4">
         <v>40</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="29"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="21" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="21"/>
+      <c r="D3" s="17"/>
       <c r="E3" s="4">
         <v>30</v>
       </c>
@@ -813,25 +816,25 @@
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="16"/>
+      <c r="C5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="17"/>
       <c r="E5" s="4">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="21" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="17"/>
       <c r="E6" s="4">
         <v>20</v>
       </c>
@@ -850,13 +853,13 @@
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E10" s="3"/>
@@ -884,38 +887,38 @@
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="14">
+      <c r="B11" s="27">
         <v>85</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="28">
         <v>24</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="29">
         <v>53</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="13">
+      <c r="F11" s="28">
         <v>-10</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="28">
         <v>0</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11" s="13">
+      <c r="I11" s="28">
         <f t="shared" ref="I11:I20" si="0">IF(B11&lt;=$E$2+$E$5, 1 + _xlfn.FLOOR.MATH(($E$2+$E$5)/10) - _xlfn.FLOOR.MATH(B11/10), -1 + _xlfn.FLOOR.MATH(($E$2+$E$5)/10) - _xlfn.FLOOR.MATH(B11/10))</f>
         <v>-4</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="28">
         <f>IF(C11&lt;=$E$3+$E$6, 1 + _xlfn.FLOOR.MATH(($E$3+$E$6)/10) - _xlfn.FLOOR.MATH(C11/10), -1 + _xlfn.FLOOR.MATH(($E$3+$E$6)/10) - _xlfn.FLOOR.MATH(C11/10))</f>
         <v>4</v>
       </c>
       <c r="K11" s="3"/>
-      <c r="L11" s="13">
+      <c r="L11" s="28">
         <f>MIN(IF(I11&gt;J11,I11-J11,IF(I11&lt;=(J11-3),-1,0))*10,60)</f>
         <v>-10</v>
       </c>
       <c r="M11" s="3"/>
-      <c r="N11" s="18">
+      <c r="N11" s="30">
         <f>IF(D11&lt;=$E$1+F11+G11+L11, 1 + _xlfn.FLOOR.MATH(($E$1+F11+G11+L11)/10) - _xlfn.FLOOR.MATH(D11/10), -1 + _xlfn.FLOOR.MATH(($E$1+F11+G11+L11)/10) - _xlfn.FLOOR.MATH(D11/10))</f>
         <v>-6</v>
       </c>
@@ -953,7 +956,7 @@
         <v>-10</v>
       </c>
       <c r="M12" s="3"/>
-      <c r="N12" s="19">
+      <c r="N12" s="15">
         <f>IF(D12&lt;=$E$1+F12+G12+L12, 1 + _xlfn.FLOOR.MATH(($E$1+F12+G12+L12)/10) - _xlfn.FLOOR.MATH(D12/10), -1 + _xlfn.FLOOR.MATH(($E$1+F12+G12+L12)/10) - _xlfn.FLOOR.MATH(D12/10))</f>
         <v>2</v>
       </c>
@@ -991,7 +994,7 @@
         <v>60</v>
       </c>
       <c r="M13" s="3"/>
-      <c r="N13" s="19">
+      <c r="N13" s="15">
         <f>IF(D13&lt;=$E$1+F13+G13+L13, 1 + _xlfn.FLOOR.MATH(($E$1+F13+G13+L13)/10) - _xlfn.FLOOR.MATH(D13/10), -1 + _xlfn.FLOOR.MATH(($E$1+F13+G13+L13)/10) - _xlfn.FLOOR.MATH(D13/10))</f>
         <v>1</v>
       </c>
@@ -1029,7 +1032,7 @@
         <v>60</v>
       </c>
       <c r="M14" s="3"/>
-      <c r="N14" s="19">
+      <c r="N14" s="15">
         <f>IF(D14&lt;=$E$1+F14+G14+L14, 1 + _xlfn.FLOOR.MATH(($E$1+F14+G14+L14)/10) - _xlfn.FLOOR.MATH(D14/10), -1 + _xlfn.FLOOR.MATH(($E$1+F14+G14+L14)/10) - _xlfn.FLOOR.MATH(D14/10))</f>
         <v>7</v>
       </c>
@@ -1067,7 +1070,7 @@
         <v>-10</v>
       </c>
       <c r="M15" s="3"/>
-      <c r="N15" s="19">
+      <c r="N15" s="15">
         <f t="shared" ref="N15:N20" si="3">IF(D15&lt;=$E$1+F15+G15+L15, 1 + _xlfn.FLOOR.MATH(($E$1+F15+G15+L15)/10) - _xlfn.FLOOR.MATH(D15/10), -1 + _xlfn.FLOOR.MATH(($E$1+F15+G15+L15)/10) - _xlfn.FLOOR.MATH(D15/10))</f>
         <v>-8</v>
       </c>
@@ -1225,43 +1228,783 @@
       </c>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7">
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="6">
         <v>47</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="10">
         <v>44</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="8">
         <v>56</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="11">
-        <v>0</v>
-      </c>
-      <c r="G20" s="11">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="11">
+      <c r="E20" s="26"/>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0</v>
+      </c>
+      <c r="H20" s="26"/>
+      <c r="I20" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="10">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K20" s="3"/>
-      <c r="L20" s="11">
+      <c r="L20" s="10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M20" s="3"/>
-      <c r="N20" s="11">
+      <c r="N20" s="10">
         <f t="shared" si="3"/>
         <v>-4</v>
       </c>
       <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="6">
+        <v>7</v>
+      </c>
+      <c r="C21" s="10">
+        <v>72</v>
+      </c>
+      <c r="D21" s="8">
+        <v>100</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="26"/>
+      <c r="I21" s="10">
+        <f t="shared" ref="I21:I40" si="4">IF(B21&lt;=$E$2+$E$5, 1 + _xlfn.FLOOR.MATH(($E$2+$E$5)/10) - _xlfn.FLOOR.MATH(B21/10), -1 + _xlfn.FLOOR.MATH(($E$2+$E$5)/10) - _xlfn.FLOOR.MATH(B21/10))</f>
+        <v>6</v>
+      </c>
+      <c r="J21" s="10">
+        <f t="shared" ref="J21:J40" si="5">IF(C21&lt;=$E$3+$E$6, 1 + _xlfn.FLOOR.MATH(($E$3+$E$6)/10) - _xlfn.FLOOR.MATH(C21/10), -1 + _xlfn.FLOOR.MATH(($E$3+$E$6)/10) - _xlfn.FLOOR.MATH(C21/10))</f>
+        <v>-3</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="10">
+        <f t="shared" ref="L21:L40" si="6">MIN(IF(I21&gt;J21,I21-J21,IF(I21&lt;=(J21-3),-1,0))*10,60)</f>
+        <v>60</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="10">
+        <f t="shared" ref="N21:N40" si="7">IF(D21&lt;=$E$1+F21+G21+L21, 1 + _xlfn.FLOOR.MATH(($E$1+F21+G21+L21)/10) - _xlfn.FLOOR.MATH(D21/10), -1 + _xlfn.FLOOR.MATH(($E$1+F21+G21+L21)/10) - _xlfn.FLOOR.MATH(D21/10))</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="6">
+        <v>53</v>
+      </c>
+      <c r="C22" s="10">
+        <v>89</v>
+      </c>
+      <c r="D22" s="8">
+        <v>66</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="10">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0</v>
+      </c>
+      <c r="H22" s="26"/>
+      <c r="I22" s="10">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="J22" s="10">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="10">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="10">
+        <f t="shared" si="7"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="6">
+        <v>75</v>
+      </c>
+      <c r="C23" s="10">
+        <v>12</v>
+      </c>
+      <c r="D23" s="8">
+        <v>35</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="10">
+        <v>0</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0</v>
+      </c>
+      <c r="H23" s="26"/>
+      <c r="I23" s="10">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="J23" s="10">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="10">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="10">
+        <f t="shared" si="7"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="6">
+        <v>88</v>
+      </c>
+      <c r="C24" s="10">
+        <v>86</v>
+      </c>
+      <c r="D24" s="8">
+        <v>18</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="10">
+        <v>0</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0</v>
+      </c>
+      <c r="H24" s="26"/>
+      <c r="I24" s="10">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="J24" s="10">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="10">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="6">
+        <v>22</v>
+      </c>
+      <c r="C25" s="10">
+        <v>64</v>
+      </c>
+      <c r="D25" s="8">
+        <v>53</v>
+      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="10">
+        <v>0</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="26"/>
+      <c r="I25" s="10">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J25" s="10">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="10">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="10">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="6">
+        <v>14</v>
+      </c>
+      <c r="C26" s="10">
+        <v>95</v>
+      </c>
+      <c r="D26" s="8">
+        <v>80</v>
+      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="10">
+        <v>0</v>
+      </c>
+      <c r="G26" s="10">
+        <v>0</v>
+      </c>
+      <c r="H26" s="26"/>
+      <c r="I26" s="10">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="10">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="6">
+        <v>48</v>
+      </c>
+      <c r="C27" s="10">
+        <v>21</v>
+      </c>
+      <c r="D27" s="8">
+        <v>87</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="10">
+        <v>0</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+      <c r="H27" s="26"/>
+      <c r="I27" s="10">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="10">
+        <f t="shared" si="7"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="6">
+        <v>91</v>
+      </c>
+      <c r="C28" s="10">
+        <v>91</v>
+      </c>
+      <c r="D28" s="8">
+        <v>25</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="10">
+        <v>0</v>
+      </c>
+      <c r="G28" s="10">
+        <v>0</v>
+      </c>
+      <c r="H28" s="26"/>
+      <c r="I28" s="10">
+        <f t="shared" si="4"/>
+        <v>-5</v>
+      </c>
+      <c r="J28" s="10">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="N28" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="6">
+        <v>25</v>
+      </c>
+      <c r="C29" s="10">
+        <v>71</v>
+      </c>
+      <c r="D29" s="8">
+        <v>20</v>
+      </c>
+      <c r="E29" s="26"/>
+      <c r="F29" s="10">
+        <v>0</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0</v>
+      </c>
+      <c r="H29" s="26"/>
+      <c r="I29" s="10">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J29" s="10">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="10">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="10">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="6">
+        <v>29</v>
+      </c>
+      <c r="C30" s="10">
+        <v>65</v>
+      </c>
+      <c r="D30" s="8">
+        <v>50</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="10">
+        <v>0</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0</v>
+      </c>
+      <c r="H30" s="26"/>
+      <c r="I30" s="10">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="J30" s="10">
+        <f t="shared" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="K30" s="3"/>
+      <c r="L30" s="10">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="10">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="6">
+        <v>66</v>
+      </c>
+      <c r="C31" s="10">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8">
+        <v>14</v>
+      </c>
+      <c r="E31" s="26"/>
+      <c r="F31" s="10">
+        <v>0</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="26"/>
+      <c r="I31" s="10">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="J31" s="10">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="10">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+      <c r="M31" s="3"/>
+      <c r="N31" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="6">
+        <v>66</v>
+      </c>
+      <c r="C32" s="10">
+        <v>49</v>
+      </c>
+      <c r="D32" s="8">
+        <v>2</v>
+      </c>
+      <c r="E32" s="26"/>
+      <c r="F32" s="10">
+        <v>0</v>
+      </c>
+      <c r="G32" s="10">
+        <v>0</v>
+      </c>
+      <c r="H32" s="26"/>
+      <c r="I32" s="10">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="J32" s="10">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K32" s="3"/>
+      <c r="L32" s="10">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+      <c r="M32" s="3"/>
+      <c r="N32" s="10">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="6">
+        <v>89</v>
+      </c>
+      <c r="C33" s="10">
+        <v>5</v>
+      </c>
+      <c r="D33" s="8">
+        <v>71</v>
+      </c>
+      <c r="E33" s="26"/>
+      <c r="F33" s="10">
+        <v>0</v>
+      </c>
+      <c r="G33" s="10">
+        <v>0</v>
+      </c>
+      <c r="H33" s="26"/>
+      <c r="I33" s="10">
+        <f t="shared" si="4"/>
+        <v>-4</v>
+      </c>
+      <c r="J33" s="10">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="K33" s="3"/>
+      <c r="L33" s="10">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+      <c r="M33" s="3"/>
+      <c r="N33" s="10">
+        <f t="shared" si="7"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="6">
+        <v>59</v>
+      </c>
+      <c r="C34" s="10">
+        <v>98</v>
+      </c>
+      <c r="D34" s="8">
+        <v>52</v>
+      </c>
+      <c r="E34" s="26"/>
+      <c r="F34" s="10">
+        <v>0</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0</v>
+      </c>
+      <c r="H34" s="26"/>
+      <c r="I34" s="10">
+        <f t="shared" si="4"/>
+        <v>-1</v>
+      </c>
+      <c r="J34" s="10">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="K34" s="3"/>
+      <c r="L34" s="10">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="M34" s="3"/>
+      <c r="N34" s="10">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="6">
+        <v>16</v>
+      </c>
+      <c r="C35" s="10">
+        <v>84</v>
+      </c>
+      <c r="D35" s="8">
+        <v>67</v>
+      </c>
+      <c r="E35" s="26"/>
+      <c r="F35" s="10">
+        <v>0</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0</v>
+      </c>
+      <c r="H35" s="26"/>
+      <c r="I35" s="10">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J35" s="10">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="K35" s="3"/>
+      <c r="L35" s="10">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="M35" s="3"/>
+      <c r="N35" s="10">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="6">
+        <v>47</v>
+      </c>
+      <c r="C36" s="10">
+        <v>55</v>
+      </c>
+      <c r="D36" s="8">
+        <v>38</v>
+      </c>
+      <c r="E36" s="26"/>
+      <c r="F36" s="10">
+        <v>0</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0</v>
+      </c>
+      <c r="H36" s="26"/>
+      <c r="I36" s="10">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J36" s="10">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="L36" s="10">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="10">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="6">
+        <v>79</v>
+      </c>
+      <c r="C37" s="10">
+        <v>59</v>
+      </c>
+      <c r="D37" s="8">
+        <v>71</v>
+      </c>
+      <c r="E37" s="26"/>
+      <c r="F37" s="10">
+        <v>0</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0</v>
+      </c>
+      <c r="H37" s="26"/>
+      <c r="I37" s="10">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="J37" s="10">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="K37" s="3"/>
+      <c r="L37" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="3"/>
+      <c r="N37" s="10">
+        <f t="shared" si="7"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="6">
+        <v>4</v>
+      </c>
+      <c r="C38" s="10">
+        <v>13</v>
+      </c>
+      <c r="D38" s="8">
+        <v>10</v>
+      </c>
+      <c r="E38" s="26"/>
+      <c r="F38" s="10">
+        <v>0</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0</v>
+      </c>
+      <c r="H38" s="26"/>
+      <c r="I38" s="10">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="J38" s="10">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="10">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="M38" s="3"/>
+      <c r="N38" s="10">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="6">
+        <v>77</v>
+      </c>
+      <c r="C39" s="10">
+        <v>5</v>
+      </c>
+      <c r="D39" s="8">
+        <v>3</v>
+      </c>
+      <c r="E39" s="26"/>
+      <c r="F39" s="10">
+        <v>0</v>
+      </c>
+      <c r="G39" s="10">
+        <v>0</v>
+      </c>
+      <c r="H39" s="26"/>
+      <c r="I39" s="10">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="J39" s="10">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="K39" s="3"/>
+      <c r="L39" s="10">
+        <f t="shared" si="6"/>
+        <v>-10</v>
+      </c>
+      <c r="M39" s="3"/>
+      <c r="N39" s="10">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="7">
+        <v>45</v>
+      </c>
+      <c r="C40" s="11">
+        <v>48</v>
+      </c>
+      <c r="D40" s="9">
+        <v>69</v>
+      </c>
+      <c r="E40" s="26"/>
+      <c r="F40" s="11">
+        <v>0</v>
+      </c>
+      <c r="G40" s="11">
+        <v>0</v>
+      </c>
+      <c r="H40" s="26"/>
+      <c r="I40" s="11">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="J40" s="11">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K40" s="3"/>
+      <c r="L40" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="3"/>
+      <c r="N40" s="11">
+        <f t="shared" si="7"/>
+        <v>-5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
